--- a/EPracticeConditions/EPracticeMaster.xlsx
+++ b/EPracticeConditions/EPracticeMaster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Emotional Go No-Go Task (Psychopy)\EPracticeConditions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERLadmin\Desktop\DOREA_Task_Battery\AGNG\EPracticeConditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419935E1-89B4-4EC9-9BE6-80C990B018D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A8CBB-2A45-44D9-8126-1D1B1464E009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="5690" windowWidth="28740" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Instructions</t>
   </si>
@@ -33,22 +33,16 @@
     <t>CondFileP</t>
   </si>
   <si>
-    <t>Rule: When you see a yellow image, do not press 'spacebar'.</t>
-  </si>
-  <si>
-    <t>Rule: When you see a blue image, do not press 'spacebar'.</t>
-  </si>
-  <si>
     <t>EPracticeConditions/BlueEyes.csv</t>
   </si>
   <si>
-    <t>EPracticeConditions/BlueScram.csv</t>
+    <t>Rule: When you see a blue image, \n do not press 'spacebar'.</t>
+  </si>
+  <si>
+    <t>Rule: When you see a yellow image, \n do not press 'spacebar'.</t>
   </si>
   <si>
     <t>EPracticeConditions/YellowScram.csv</t>
-  </si>
-  <si>
-    <t>EPracticeConditions/YellowEyes.csv</t>
   </si>
 </sst>
 </file>
@@ -366,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,7 +382,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -396,26 +390,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
